--- a/precios.xlsx
+++ b/precios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\Oliver\Oliver\analisis_competitivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE04EE38-34D0-484C-8450-FC70832B1181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBF454E-2C7A-4ECC-8B41-9671295D65E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DACE4D65-3BC6-45BE-88C2-A8EC7A7A874F}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{DACE4D65-3BC6-45BE-88C2-A8EC7A7A874F}"/>
   </bookViews>
   <sheets>
     <sheet name="precios" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="90">
   <si>
     <t>sku</t>
   </si>
@@ -255,6 +255,57 @@
   </si>
   <si>
     <t>berlin bottle</t>
+  </si>
+  <si>
+    <t>havana club</t>
+  </si>
+  <si>
+    <t>havana club 7</t>
+  </si>
+  <si>
+    <t>havana club seleccion</t>
+  </si>
+  <si>
+    <t>havana club 3</t>
+  </si>
+  <si>
+    <t>havana club anejo especial</t>
+  </si>
+  <si>
+    <t>brugal</t>
+  </si>
+  <si>
+    <t>brugal 1888</t>
+  </si>
+  <si>
+    <t>brugal anejo</t>
+  </si>
+  <si>
+    <t>brugal blanco</t>
+  </si>
+  <si>
+    <t>brugal extra viejo</t>
+  </si>
+  <si>
+    <t>brugal leyenda 5</t>
+  </si>
+  <si>
+    <t>licorea</t>
+  </si>
+  <si>
+    <t>brugal leyenda</t>
+  </si>
+  <si>
+    <t>brugal reserva xv</t>
+  </si>
+  <si>
+    <t>puntacana</t>
+  </si>
+  <si>
+    <t>puntacana xox</t>
+  </si>
+  <si>
+    <t>puntacana tesoro</t>
   </si>
 </sst>
 </file>
@@ -616,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AE18F0-F312-46DD-912C-71ACF051668C}">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3818,6 +3869,818 @@
         <v>40</v>
       </c>
     </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>36</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" t="s">
+        <v>73</v>
+      </c>
+      <c r="E111" t="s">
+        <v>73</v>
+      </c>
+      <c r="F111" t="s">
+        <v>74</v>
+      </c>
+      <c r="G111">
+        <v>33.5</v>
+      </c>
+      <c r="H111">
+        <v>700</v>
+      </c>
+      <c r="I111">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>36</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" t="s">
+        <v>73</v>
+      </c>
+      <c r="E112" t="s">
+        <v>73</v>
+      </c>
+      <c r="F112" t="s">
+        <v>75</v>
+      </c>
+      <c r="G112">
+        <v>52.5</v>
+      </c>
+      <c r="H112">
+        <v>700</v>
+      </c>
+      <c r="I112">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>36</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113" t="s">
+        <v>73</v>
+      </c>
+      <c r="E113" t="s">
+        <v>73</v>
+      </c>
+      <c r="F113" t="s">
+        <v>76</v>
+      </c>
+      <c r="G113">
+        <v>20.9</v>
+      </c>
+      <c r="H113">
+        <v>700</v>
+      </c>
+      <c r="I113">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>36</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>40</v>
+      </c>
+      <c r="D114" t="s">
+        <v>73</v>
+      </c>
+      <c r="E114" t="s">
+        <v>73</v>
+      </c>
+      <c r="F114" t="s">
+        <v>77</v>
+      </c>
+      <c r="G114">
+        <v>22.9</v>
+      </c>
+      <c r="H114">
+        <v>700</v>
+      </c>
+      <c r="I114">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" t="s">
+        <v>73</v>
+      </c>
+      <c r="E115" t="s">
+        <v>73</v>
+      </c>
+      <c r="F115" t="s">
+        <v>76</v>
+      </c>
+      <c r="G115">
+        <v>20.9</v>
+      </c>
+      <c r="H115">
+        <v>700</v>
+      </c>
+      <c r="I115">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" t="s">
+        <v>73</v>
+      </c>
+      <c r="E116" t="s">
+        <v>73</v>
+      </c>
+      <c r="F116" t="s">
+        <v>75</v>
+      </c>
+      <c r="G116">
+        <v>54.9</v>
+      </c>
+      <c r="H116">
+        <v>700</v>
+      </c>
+      <c r="I116">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>36</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" t="s">
+        <v>73</v>
+      </c>
+      <c r="E117" t="s">
+        <v>73</v>
+      </c>
+      <c r="F117" t="s">
+        <v>76</v>
+      </c>
+      <c r="G117">
+        <v>21.9</v>
+      </c>
+      <c r="H117">
+        <v>700</v>
+      </c>
+      <c r="I117">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" t="s">
+        <v>73</v>
+      </c>
+      <c r="E118" t="s">
+        <v>73</v>
+      </c>
+      <c r="F118" t="s">
+        <v>74</v>
+      </c>
+      <c r="G118">
+        <v>31.9</v>
+      </c>
+      <c r="H118">
+        <v>700</v>
+      </c>
+      <c r="I118">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>32</v>
+      </c>
+      <c r="D119" t="s">
+        <v>73</v>
+      </c>
+      <c r="E119" t="s">
+        <v>73</v>
+      </c>
+      <c r="F119" t="s">
+        <v>75</v>
+      </c>
+      <c r="G119">
+        <v>52.9</v>
+      </c>
+      <c r="H119">
+        <v>700</v>
+      </c>
+      <c r="I119">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" t="s">
+        <v>73</v>
+      </c>
+      <c r="E120" t="s">
+        <v>73</v>
+      </c>
+      <c r="F120" t="s">
+        <v>77</v>
+      </c>
+      <c r="G120">
+        <v>27.9</v>
+      </c>
+      <c r="H120">
+        <v>1000</v>
+      </c>
+      <c r="I120">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" t="s">
+        <v>78</v>
+      </c>
+      <c r="E121" t="s">
+        <v>78</v>
+      </c>
+      <c r="F121" t="s">
+        <v>79</v>
+      </c>
+      <c r="G121">
+        <v>49.9</v>
+      </c>
+      <c r="H121">
+        <v>700</v>
+      </c>
+      <c r="I121">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" t="s">
+        <v>78</v>
+      </c>
+      <c r="E122" t="s">
+        <v>78</v>
+      </c>
+      <c r="F122" t="s">
+        <v>80</v>
+      </c>
+      <c r="G122">
+        <v>23.9</v>
+      </c>
+      <c r="H122">
+        <v>700</v>
+      </c>
+      <c r="I122">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" t="s">
+        <v>78</v>
+      </c>
+      <c r="F123" t="s">
+        <v>81</v>
+      </c>
+      <c r="G123">
+        <v>24</v>
+      </c>
+      <c r="H123">
+        <v>700</v>
+      </c>
+      <c r="I123">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>32</v>
+      </c>
+      <c r="D124" t="s">
+        <v>78</v>
+      </c>
+      <c r="E124" t="s">
+        <v>78</v>
+      </c>
+      <c r="F124" t="s">
+        <v>80</v>
+      </c>
+      <c r="G124">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H124">
+        <v>700</v>
+      </c>
+      <c r="I124">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" t="s">
+        <v>78</v>
+      </c>
+      <c r="E125" t="s">
+        <v>78</v>
+      </c>
+      <c r="F125" t="s">
+        <v>79</v>
+      </c>
+      <c r="G125">
+        <v>42.9</v>
+      </c>
+      <c r="H125">
+        <v>700</v>
+      </c>
+      <c r="I125">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>36</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>32</v>
+      </c>
+      <c r="D126" t="s">
+        <v>78</v>
+      </c>
+      <c r="E126" t="s">
+        <v>78</v>
+      </c>
+      <c r="F126" t="s">
+        <v>81</v>
+      </c>
+      <c r="G126">
+        <v>20.9</v>
+      </c>
+      <c r="H126">
+        <v>700</v>
+      </c>
+      <c r="I126">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>32</v>
+      </c>
+      <c r="D127" t="s">
+        <v>78</v>
+      </c>
+      <c r="E127" t="s">
+        <v>78</v>
+      </c>
+      <c r="F127" t="s">
+        <v>82</v>
+      </c>
+      <c r="G127">
+        <v>31.9</v>
+      </c>
+      <c r="H127">
+        <v>700</v>
+      </c>
+      <c r="I127">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" t="s">
+        <v>78</v>
+      </c>
+      <c r="E128" t="s">
+        <v>78</v>
+      </c>
+      <c r="F128" t="s">
+        <v>80</v>
+      </c>
+      <c r="G128">
+        <v>22.9</v>
+      </c>
+      <c r="H128">
+        <v>700</v>
+      </c>
+      <c r="I128">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" t="s">
+        <v>78</v>
+      </c>
+      <c r="E129" t="s">
+        <v>78</v>
+      </c>
+      <c r="F129" t="s">
+        <v>79</v>
+      </c>
+      <c r="G129">
+        <v>49.9</v>
+      </c>
+      <c r="H129">
+        <v>700</v>
+      </c>
+      <c r="I129">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" t="s">
+        <v>78</v>
+      </c>
+      <c r="E130" t="s">
+        <v>78</v>
+      </c>
+      <c r="F130" t="s">
+        <v>82</v>
+      </c>
+      <c r="G130">
+        <v>31.9</v>
+      </c>
+      <c r="H130">
+        <v>700</v>
+      </c>
+      <c r="I130">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>36</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>84</v>
+      </c>
+      <c r="D131" t="s">
+        <v>78</v>
+      </c>
+      <c r="E131" t="s">
+        <v>78</v>
+      </c>
+      <c r="F131" t="s">
+        <v>83</v>
+      </c>
+      <c r="G131">
+        <v>98.15</v>
+      </c>
+      <c r="H131">
+        <v>700</v>
+      </c>
+      <c r="I131">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>36</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132" t="s">
+        <v>78</v>
+      </c>
+      <c r="E132" t="s">
+        <v>78</v>
+      </c>
+      <c r="F132" t="s">
+        <v>85</v>
+      </c>
+      <c r="G132">
+        <v>71</v>
+      </c>
+      <c r="H132">
+        <v>700</v>
+      </c>
+      <c r="I132">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>36</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>41</v>
+      </c>
+      <c r="D133" t="s">
+        <v>78</v>
+      </c>
+      <c r="E133" t="s">
+        <v>78</v>
+      </c>
+      <c r="F133" t="s">
+        <v>80</v>
+      </c>
+      <c r="G133">
+        <v>25.99</v>
+      </c>
+      <c r="H133">
+        <v>700</v>
+      </c>
+      <c r="I133">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>36</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" t="s">
+        <v>78</v>
+      </c>
+      <c r="E134" t="s">
+        <v>78</v>
+      </c>
+      <c r="F134" t="s">
+        <v>81</v>
+      </c>
+      <c r="G134">
+        <v>25</v>
+      </c>
+      <c r="H134">
+        <v>700</v>
+      </c>
+      <c r="I134">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>36</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135" t="s">
+        <v>78</v>
+      </c>
+      <c r="E135" t="s">
+        <v>78</v>
+      </c>
+      <c r="F135" t="s">
+        <v>79</v>
+      </c>
+      <c r="G135">
+        <v>45</v>
+      </c>
+      <c r="H135">
+        <v>700</v>
+      </c>
+      <c r="I135">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>36</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" t="s">
+        <v>78</v>
+      </c>
+      <c r="E136" t="s">
+        <v>78</v>
+      </c>
+      <c r="F136" t="s">
+        <v>86</v>
+      </c>
+      <c r="G136">
+        <v>39</v>
+      </c>
+      <c r="H136">
+        <v>700</v>
+      </c>
+      <c r="I136">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>36</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" t="s">
+        <v>45</v>
+      </c>
+      <c r="E137" t="s">
+        <v>87</v>
+      </c>
+      <c r="F137" t="s">
+        <v>88</v>
+      </c>
+      <c r="G137">
+        <v>88.9</v>
+      </c>
+      <c r="H137">
+        <v>700</v>
+      </c>
+      <c r="I137">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>36</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" t="s">
+        <v>45</v>
+      </c>
+      <c r="E138" t="s">
+        <v>87</v>
+      </c>
+      <c r="F138" t="s">
+        <v>89</v>
+      </c>
+      <c r="G138">
+        <v>54.9</v>
+      </c>
+      <c r="H138">
+        <v>700</v>
+      </c>
+      <c r="I138">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
